--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -5328,12 +5328,12 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,15 +6169,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6193,12 +6197,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,15 +6219,19 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6244,7 +6252,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6261,7 +6269,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
@@ -6273,7 +6281,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6294,7 +6302,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6323,7 +6331,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6344,7 +6352,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6366,14 +6374,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6394,7 +6402,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6411,19 +6419,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6444,7 +6452,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6461,7 +6469,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6473,7 +6481,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6494,7 +6502,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6511,19 +6519,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6544,7 +6552,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6561,19 +6569,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6589,12 +6597,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6611,19 +6619,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6639,12 +6647,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6661,19 +6669,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6694,7 +6702,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6711,19 +6719,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6744,7 +6752,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6761,19 +6769,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6794,7 +6802,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6816,14 +6824,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6844,7 +6852,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6866,14 +6874,14 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6894,7 +6902,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6923,7 +6931,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6944,7 +6952,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6973,7 +6981,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6989,12 +6997,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7011,19 +7019,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7039,12 +7042,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7061,19 +7064,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7094,7 +7097,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,19 +7114,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7144,7 +7147,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7159,11 +7162,7 @@
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H132" s="16" t="n"/>
       <c r="I132" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7173,7 +7172,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7194,7 +7193,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7211,7 +7210,7 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7223,7 +7222,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7244,7 +7243,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7266,14 +7265,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7294,7 +7293,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7316,14 +7315,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7344,7 +7343,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7366,14 +7365,14 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7389,12 +7388,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7411,19 +7410,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7444,7 +7443,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7461,19 +7460,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7494,7 +7488,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7518,7 +7512,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7539,7 +7533,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7557,13 +7551,18 @@
       <c r="H140" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7584,7 +7583,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7606,14 +7605,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7634,7 +7633,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7663,7 +7662,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7684,7 +7683,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7702,18 +7701,13 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7734,7 +7728,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7752,13 +7746,18 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7779,7 +7778,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7797,18 +7796,13 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7829,7 +7823,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7853,7 +7847,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7874,7 +7868,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7891,14 +7885,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7919,7 +7913,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7936,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7954,23 +7948,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7981,14 +7975,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8009,13 +8003,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8026,14 +8020,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8054,7 +8048,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8071,14 +8065,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8089,7 +8083,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8099,13 +8093,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8116,14 +8110,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8144,13 +8138,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8161,14 +8155,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8189,13 +8183,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8206,14 +8200,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8234,7 +8228,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8251,14 +8245,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8279,7 +8273,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8296,14 +8290,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8324,7 +8318,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8341,14 +8335,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8369,7 +8363,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8386,14 +8380,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8414,13 +8408,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8431,14 +8425,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8459,7 +8453,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8476,14 +8470,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8504,7 +8498,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8521,14 +8515,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8549,13 +8543,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8566,14 +8560,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8594,13 +8588,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8611,14 +8605,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8634,18 +8628,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8656,14 +8650,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8684,13 +8678,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8701,14 +8695,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8729,7 +8723,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8746,14 +8740,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8774,7 +8768,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8798,7 +8792,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8819,7 +8813,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8843,7 +8837,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8864,13 +8858,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8888,7 +8882,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8909,13 +8903,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8933,7 +8927,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8954,7 +8948,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8978,7 +8972,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8999,7 +8993,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9023,7 +9017,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9044,7 +9038,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9061,14 +9055,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9089,7 +9083,7 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
@@ -9106,14 +9100,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9129,18 +9123,18 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9151,14 +9145,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9179,13 +9173,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9196,14 +9190,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9224,7 +9218,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9241,14 +9235,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9269,7 +9263,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9293,7 +9287,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9314,7 +9308,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9338,7 +9332,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9359,7 +9353,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9383,7 +9377,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9404,7 +9398,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9428,7 +9422,7 @@
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9449,7 +9443,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9466,14 +9460,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9494,7 +9488,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9511,14 +9505,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9539,7 +9533,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9556,14 +9550,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9584,7 +9578,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9601,14 +9595,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9629,7 +9623,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9653,7 +9647,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9669,12 +9663,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9691,14 +9685,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9719,7 +9713,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9736,14 +9730,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9764,7 +9758,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9781,14 +9775,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9809,7 +9803,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9833,7 +9827,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9854,7 +9848,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9871,14 +9865,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9899,7 +9893,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9916,14 +9910,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9944,7 +9938,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9961,14 +9955,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9989,7 +9983,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10006,14 +10000,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10034,7 +10028,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10058,7 +10052,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10067,45 +10061,15 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B196" s="22" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C196" s="22" t="inlineStr">
-        <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
-        </is>
-      </c>
+      <c r="A196" s="22" t="n"/>
+      <c r="B196" s="22" t="n"/>
+      <c r="C196" s="22" t="n"/>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E196" s="22" t="n"/>
       <c r="G196" s="22" t="n"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L196" s="26" t="n"/>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11825,7 +11789,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -8858,7 +8858,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4351,13 +4351,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,13 +4397,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Disable health probes when there�s only one origin in an Azure Front Door origin group.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4414,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,13 +4489,13 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4506,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4530,18 +4530,18 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,19 +4552,15 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="n"/>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4602,15 +4598,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4648,7 +4648,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4656,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,7 +4694,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4702,7 +4702,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,7 +4740,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4748,7 +4748,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,15 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I84" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4815,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4832,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4865,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,19 +4882,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4919,7 +4915,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4936,15 +4932,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,13 +4965,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4982,7 +4982,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4990,7 +4990,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5006,18 +5006,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5028,19 +5028,15 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="n"/>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5061,7 +5057,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5078,7 +5074,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
@@ -5090,7 +5086,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5111,7 +5107,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5140,7 +5136,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5161,7 +5157,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5178,7 +5174,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5190,7 +5186,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5211,7 +5207,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5228,7 +5224,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5240,7 +5236,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5261,7 +5257,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5278,7 +5274,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5290,7 +5286,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5311,7 +5307,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5328,19 +5324,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5361,7 +5357,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5378,19 +5374,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5411,7 +5407,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5428,7 +5424,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5440,7 +5436,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5461,7 +5457,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5478,7 +5474,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5490,7 +5486,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5511,7 +5507,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5528,7 +5524,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
@@ -5540,7 +5536,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5561,7 +5557,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5578,7 +5574,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5590,7 +5586,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5606,12 +5602,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5628,19 +5624,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5661,7 +5657,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5690,7 +5686,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5711,7 +5707,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5740,7 +5736,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5761,7 +5757,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5790,7 +5786,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5811,7 +5807,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5828,19 +5824,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5861,7 +5857,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5878,7 +5874,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
@@ -5890,7 +5886,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5911,7 +5907,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5940,7 +5936,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5961,7 +5957,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5981,12 +5977,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I108" s="16" t="n"/>
+      <c r="I108" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6024,19 +6024,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6052,12 +6048,12 @@
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6074,19 +6070,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6107,7 +6103,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6120,19 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6148,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,19 +6170,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6202,7 +6199,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6219,7 +6216,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
@@ -6231,7 +6228,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6252,7 +6249,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6281,7 +6278,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6302,7 +6299,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6331,7 +6328,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6352,7 +6349,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6374,14 +6371,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6402,7 +6399,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6419,7 +6416,7 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6431,7 +6428,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6452,7 +6449,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6469,7 +6466,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6481,7 +6478,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6502,7 +6499,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6524,14 +6521,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6552,7 +6549,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6569,19 +6566,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6597,12 +6594,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6619,19 +6616,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6652,7 +6649,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6674,14 +6671,14 @@
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6702,7 +6699,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6719,19 +6716,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6752,7 +6749,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6774,14 +6771,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6802,7 +6799,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6824,14 +6821,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6852,7 +6849,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6881,7 +6878,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6902,7 +6899,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6931,7 +6928,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6952,7 +6949,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6981,7 +6978,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6997,12 +6994,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7019,14 +7016,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7047,7 +7049,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7064,19 +7066,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7097,7 +7094,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7114,19 +7111,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7147,7 +7144,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7162,7 +7159,11 @@
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7172,7 +7173,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7193,7 +7194,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7208,11 +7209,7 @@
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H133" s="16" t="n"/>
       <c r="I133" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7222,7 +7219,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7243,7 +7240,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7265,14 +7262,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7293,7 +7290,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7315,14 +7312,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,7 +7340,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,14 +7362,14 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7388,12 +7385,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7410,19 +7407,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7443,7 +7440,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7460,14 +7457,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7488,7 +7490,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7512,7 +7514,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7533,7 +7535,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7551,18 +7553,13 @@
       <c r="H140" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7583,7 +7580,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7605,14 +7602,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7633,7 +7630,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7662,7 +7659,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7683,7 +7680,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7701,13 +7698,18 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7728,7 +7730,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7746,18 +7748,13 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7778,7 +7775,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7796,13 +7793,18 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7823,7 +7825,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7847,7 +7849,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7868,7 +7870,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,14 +7887,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7913,7 +7915,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7930,14 +7932,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7948,23 +7950,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7975,14 +7977,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8003,13 +8005,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8020,14 +8022,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8048,7 +8050,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8065,14 +8067,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8083,7 +8085,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8093,13 +8095,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8110,14 +8112,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8138,13 +8140,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8155,14 +8157,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8183,13 +8185,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8200,14 +8202,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8228,7 +8230,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,14 +8247,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8273,7 +8275,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,14 +8292,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8318,7 +8320,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8335,14 +8337,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8363,7 +8365,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8380,14 +8382,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8408,13 +8410,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8425,14 +8427,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8453,7 +8455,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8470,14 +8472,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8498,7 +8500,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8515,14 +8517,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8543,13 +8545,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8560,14 +8562,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8588,13 +8590,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8605,14 +8607,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8628,18 +8630,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8650,14 +8652,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8678,13 +8680,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8695,14 +8697,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8723,7 +8725,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8740,14 +8742,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8768,7 +8770,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8792,7 +8794,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8813,7 +8815,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8837,7 +8839,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,13 +8860,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8875,14 +8877,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,13 +8905,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8920,14 +8922,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8948,7 +8950,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8972,7 +8974,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8993,7 +8995,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9017,7 +9019,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9038,7 +9040,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,14 +9057,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9083,7 +9085,7 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
@@ -9100,14 +9102,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9123,18 +9125,18 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9145,14 +9147,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9173,13 +9175,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9190,14 +9192,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9218,7 +9220,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,14 +9237,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9263,7 +9265,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9287,7 +9289,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9308,7 +9310,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9332,7 +9334,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9353,7 +9355,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9377,7 +9379,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,7 +9400,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9422,7 +9424,7 @@
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,7 +9445,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,14 +9462,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9488,7 +9490,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,14 +9507,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9533,7 +9535,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,14 +9552,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9578,7 +9580,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,14 +9597,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9623,7 +9625,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9647,7 +9649,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9663,12 +9665,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,14 +9687,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9713,7 +9715,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9730,14 +9732,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9758,7 +9760,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9775,14 +9777,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9803,7 +9805,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9827,7 +9829,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9848,7 +9850,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,14 +9867,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9893,7 +9895,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,14 +9912,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,7 +9940,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9955,14 +9957,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,7 +9985,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,14 +10002,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10028,7 +10030,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10052,7 +10054,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10061,15 +10063,45 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="n"/>
-      <c r="B196" s="22" t="n"/>
-      <c r="C196" s="22" t="n"/>
+      <c r="A196" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C196" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="n"/>
+      <c r="E196" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G196" s="22" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="n"/>
+      <c r="L196" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11789,7 +11821,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Backup and Disaster Recovery</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,19 +1122,15 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1155,7 +1151,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1172,19 +1168,19 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1205,13 +1201,13 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1222,19 +1218,19 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1255,13 +1251,13 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
+          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1272,19 +1268,19 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1305,13 +1301,13 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
+          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1322,19 +1318,19 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1355,7 +1351,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
+          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1372,19 +1368,19 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1405,13 +1401,13 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
+          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1422,19 +1418,19 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1455,13 +1451,13 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
+          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1472,19 +1468,19 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1505,7 +1501,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
+          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1522,19 +1518,19 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1555,7 +1551,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1572,19 +1568,19 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1605,7 +1601,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1622,19 +1618,19 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1655,7 +1651,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
+          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1677,14 +1673,14 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1705,7 +1701,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
+          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1722,19 +1718,19 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1755,7 +1751,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
+          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1772,19 +1768,19 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1805,7 +1801,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
+          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1818,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,17 +1841,17 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
+          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1868,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1901,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Enforce or appended resource tags through Azure Policy</t>
+          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1918,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1951,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
+          <t>Enforce or appended resource tags through Azure Policy</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1972,19 +1968,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2001,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
+          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2030,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2051,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
+          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2084,7 +2080,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2105,7 +2101,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Enforce no subscriptions are placed under the root management group</t>
+          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2122,14 +2118,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2150,7 +2151,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
+          <t>Enforce no subscriptions are placed under the root management group</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2167,14 +2168,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2195,7 +2196,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
+          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2212,14 +2213,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2240,13 +2241,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
+          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2264,7 +2265,7 @@
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2285,13 +2286,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
+          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2302,7 +2303,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2310,7 +2311,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2331,13 +2332,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2348,19 +2349,15 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I33" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I33" s="16" t="n"/>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2381,7 +2378,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2398,19 +2395,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2431,13 +2428,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2448,19 +2445,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2481,13 +2478,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2498,19 +2495,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2531,13 +2528,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2548,19 +2545,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2581,7 +2578,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2598,19 +2595,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2621,23 +2618,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2648,15 +2645,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2677,13 +2678,13 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2694,7 +2695,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2702,7 +2703,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2718,12 +2719,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2740,19 +2741,15 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I41" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="n"/>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2773,7 +2770,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2788,13 +2785,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2815,7 +2820,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2830,21 +2835,13 @@
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
-      <c r="H43" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I43" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H43" s="16" t="n"/>
+      <c r="I43" s="16" t="n"/>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2865,7 +2862,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2894,7 +2891,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2915,7 +2912,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2932,19 +2929,19 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2965,7 +2962,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2982,19 +2979,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3015,7 +3012,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3032,19 +3029,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3065,7 +3062,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3082,19 +3079,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3115,13 +3112,13 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3132,14 +3129,19 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3160,13 +3162,13 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3177,7 +3179,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3185,7 +3187,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3206,7 +3208,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3223,7 +3225,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3231,7 +3233,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3252,7 +3254,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3269,7 +3271,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3277,7 +3279,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3298,7 +3300,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3315,14 +3317,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3343,7 +3345,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3360,7 +3362,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3368,7 +3370,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3389,7 +3391,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3406,14 +3408,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3434,7 +3436,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3451,14 +3453,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3479,7 +3481,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3496,14 +3498,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3524,7 +3526,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3541,14 +3543,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3569,7 +3571,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3586,14 +3588,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3614,7 +3616,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3631,14 +3633,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3649,17 +3651,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3676,19 +3678,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3699,17 +3696,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, ensure that WAF protection and policies are enabled in your Application Gateways</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3726,19 +3723,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3759,7 +3751,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Ensure you are using Application Gateway v2 SKU</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3776,7 +3768,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I63" s="16" t="inlineStr">
@@ -3788,7 +3780,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3809,7 +3801,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, ensure that WAF protection and policies are enabled in your Application Gateways</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3826,19 +3818,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3859,7 +3851,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Ensure you are using Application Gateway v2 SKU</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3876,7 +3868,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
@@ -3888,7 +3880,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3909,7 +3901,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3926,19 +3918,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3959,7 +3951,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3981,14 +3973,14 @@
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4009,7 +4001,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4026,7 +4018,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="inlineStr">
@@ -4038,7 +4030,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4059,7 +4051,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4088,7 +4080,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4109,13 +4101,13 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4126,19 +4118,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4159,7 +4151,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4176,19 +4168,19 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4204,18 +4196,18 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4226,15 +4218,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I72" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,12 +4246,12 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4272,19 +4268,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4300,12 +4296,12 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4322,7 +4318,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4326,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4346,18 +4342,18 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,15 +4364,19 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4506,7 +4506,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,7 +4552,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4576,12 +4576,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4598,19 +4598,15 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="n"/>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4626,18 +4622,18 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4648,7 +4644,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4652,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,15 +4690,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,7 +4740,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4748,7 +4748,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,7 +4786,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4794,7 +4794,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4832,19 +4832,15 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I85" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+        </is>
+      </c>
+      <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4865,7 +4861,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4882,19 +4878,15 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="n"/>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4915,7 +4907,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4932,19 +4924,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,7 +4957,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4982,15 +4974,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5011,13 +5007,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5028,15 +5024,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5052,12 +5052,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5074,19 +5074,15 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="n"/>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5102,18 +5098,18 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5124,19 +5120,15 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I91" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="n"/>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5157,7 +5149,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5174,7 +5166,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5186,7 +5178,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5207,7 +5199,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5224,7 +5216,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5236,7 +5228,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5257,7 +5249,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5274,7 +5266,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5286,7 +5278,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5307,7 +5299,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5324,7 +5316,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5336,7 +5328,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5357,7 +5349,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5374,19 +5366,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5407,7 +5399,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5424,7 +5416,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5436,7 +5428,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5457,7 +5449,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5474,19 +5466,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5507,7 +5499,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5524,7 +5516,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
@@ -5536,7 +5528,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5557,7 +5549,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5574,7 +5566,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5586,7 +5578,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5607,7 +5599,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5624,7 +5616,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
@@ -5636,7 +5628,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5652,12 +5644,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5674,19 +5666,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5702,12 +5694,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5724,19 +5716,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5752,12 +5744,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5774,19 +5766,15 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="n"/>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5802,12 +5790,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t>Consider using Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5824,19 +5812,15 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I105" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="n"/>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5857,7 +5841,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5874,19 +5858,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5907,7 +5891,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5924,19 +5908,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5957,7 +5941,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5974,19 +5958,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6007,7 +5991,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6024,15 +6008,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6053,7 +6041,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6070,7 +6058,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6082,7 +6070,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6098,12 +6086,12 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6120,19 +6108,19 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6148,12 +6136,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6170,15 +6158,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6194,12 +6186,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6216,19 +6208,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6244,12 +6232,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6266,19 +6254,19 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6294,12 +6282,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6316,19 +6304,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6344,12 +6332,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6366,19 +6354,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6399,7 +6382,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6416,19 +6399,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6449,7 +6432,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6466,19 +6449,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6499,7 +6482,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6516,19 +6499,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6549,7 +6532,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6566,19 +6549,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6599,7 +6582,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6616,19 +6599,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6644,12 +6627,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6666,19 +6649,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6694,12 +6677,12 @@
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6716,19 +6699,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6744,12 +6727,12 @@
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6766,19 +6749,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6794,12 +6777,12 @@
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6816,19 +6799,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6849,7 +6832,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6866,19 +6849,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6899,7 +6882,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6916,7 +6899,7 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6928,7 +6911,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6949,7 +6932,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6971,14 +6954,14 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6999,7 +6982,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7021,14 +7004,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7044,12 +7027,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7066,14 +7049,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7089,12 +7077,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,19 +7099,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7139,12 +7127,12 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7161,19 +7149,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7189,12 +7177,12 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7209,17 +7197,21 @@
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7240,7 +7232,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7257,19 +7249,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7290,7 +7277,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7307,19 +7294,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7340,7 +7327,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7357,7 +7344,7 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7369,7 +7356,7 @@
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7390,7 +7377,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7405,21 +7392,17 @@
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H137" s="16" t="n"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7435,12 +7418,12 @@
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7457,19 +7440,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7485,12 +7468,12 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7507,14 +7490,19 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7530,12 +7518,12 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7552,14 +7540,19 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7575,12 +7568,12 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7597,19 +7590,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7630,7 +7623,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7647,19 +7640,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7680,7 +7673,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7698,18 +7691,13 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7730,7 +7718,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7754,7 +7742,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7775,7 +7763,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7797,14 +7785,14 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7825,7 +7813,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7843,13 +7831,18 @@
       <c r="H146" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7870,7 +7863,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7888,13 +7881,18 @@
       <c r="H147" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7915,7 +7913,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7932,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7960,7 +7958,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7977,14 +7975,19 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7995,23 +7998,23 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8022,14 +8025,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8040,17 +8043,17 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8067,14 +8070,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8085,17 +8088,17 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8112,14 +8115,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8130,23 +8133,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8157,14 +8160,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8175,7 +8178,7 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
@@ -8185,13 +8188,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8202,14 +8205,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8220,7 +8223,7 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
@@ -8230,13 +8233,13 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8247,14 +8250,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8265,7 +8268,7 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
@@ -8275,13 +8278,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8292,14 +8295,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8320,7 +8323,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8337,14 +8340,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8365,13 +8368,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8382,14 +8385,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8410,7 +8413,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8427,14 +8430,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8455,13 +8458,13 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
       <c r="E160" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8472,14 +8475,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8500,13 +8503,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8517,14 +8520,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8545,13 +8548,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8562,14 +8565,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8590,13 +8593,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8607,14 +8610,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8635,7 +8638,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8652,14 +8655,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8675,18 +8678,18 @@
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8697,14 +8700,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8720,12 +8723,12 @@
       </c>
       <c r="B166" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8742,14 +8745,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8765,18 +8768,18 @@
       </c>
       <c r="B167" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
       <c r="E167" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8787,14 +8790,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8810,12 +8813,12 @@
       </c>
       <c r="B168" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8832,14 +8835,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8860,13 +8863,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8884,7 +8887,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8905,13 +8908,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8922,14 +8925,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8950,7 +8953,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8974,7 +8977,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8995,7 +8998,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9019,7 +9022,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9040,7 +9043,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9064,7 +9067,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9085,13 +9088,13 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9102,14 +9105,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9130,7 +9133,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9147,14 +9150,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9170,18 +9173,18 @@
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9192,14 +9195,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9215,12 +9218,12 @@
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9237,14 +9240,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9260,12 +9263,12 @@
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9282,14 +9285,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9305,12 +9308,12 @@
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9327,14 +9330,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9350,12 +9353,12 @@
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9372,14 +9375,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9400,13 +9403,13 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9417,14 +9420,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9445,7 +9448,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9462,14 +9465,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9490,7 +9493,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9507,14 +9510,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9535,7 +9538,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9559,7 +9562,7 @@
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9580,7 +9583,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9597,14 +9600,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9625,7 +9628,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9649,7 +9652,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9670,7 +9673,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9694,7 +9697,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9710,12 +9713,12 @@
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9732,14 +9735,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9755,12 +9758,12 @@
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9777,14 +9780,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9800,12 +9803,12 @@
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9822,14 +9825,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9845,12 +9848,12 @@
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9867,14 +9870,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9890,12 +9893,12 @@
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9912,14 +9915,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9940,7 +9943,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9957,14 +9960,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9985,7 +9988,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10002,14 +10005,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10030,7 +10033,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10047,14 +10050,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10075,7 +10078,7 @@
       </c>
       <c r="C196" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D196" s="22" t="n"/>
@@ -10092,14 +10095,14 @@
       <c r="G196" s="22" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
       <c r="L196" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M196" s="26" t="n"/>
@@ -10108,75 +10111,225 @@
       <c r="P196" s="26" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1" s="13">
-      <c r="A197" s="22" t="n"/>
-      <c r="B197" s="22" t="n"/>
-      <c r="C197" s="22" t="n"/>
+      <c r="A197" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B197" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C197" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D197" s="22" t="n"/>
-      <c r="E197" s="22" t="n"/>
+      <c r="E197" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G197" s="22" t="n"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J197" s="23" t="n"/>
       <c r="K197" s="23" t="n"/>
-      <c r="L197" s="26" t="n"/>
+      <c r="L197" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M197" s="26" t="n"/>
       <c r="N197" s="26" t="n"/>
       <c r="O197" s="26" t="n"/>
       <c r="P197" s="26" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1" s="13">
-      <c r="A198" s="22" t="n"/>
-      <c r="B198" s="22" t="n"/>
-      <c r="C198" s="22" t="n"/>
+      <c r="A198" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B198" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C198" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D198" s="22" t="n"/>
-      <c r="E198" s="22" t="n"/>
+      <c r="E198" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G198" s="22" t="n"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J198" s="23" t="n"/>
       <c r="K198" s="23" t="n"/>
-      <c r="L198" s="26" t="n"/>
+      <c r="L198" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M198" s="26" t="n"/>
       <c r="N198" s="26" t="n"/>
       <c r="O198" s="26" t="n"/>
       <c r="P198" s="26" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1" s="13">
-      <c r="A199" s="22" t="n"/>
-      <c r="B199" s="22" t="n"/>
-      <c r="C199" s="22" t="n"/>
+      <c r="A199" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B199" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C199" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D199" s="22" t="n"/>
-      <c r="E199" s="22" t="n"/>
+      <c r="E199" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G199" s="22" t="n"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J199" s="23" t="n"/>
       <c r="K199" s="23" t="n"/>
-      <c r="L199" s="26" t="n"/>
+      <c r="L199" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M199" s="26" t="n"/>
       <c r="N199" s="26" t="n"/>
       <c r="O199" s="26" t="n"/>
       <c r="P199" s="26" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1" s="13">
-      <c r="A200" s="22" t="n"/>
-      <c r="B200" s="22" t="n"/>
-      <c r="C200" s="22" t="n"/>
+      <c r="A200" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B200" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C200" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D200" s="22" t="n"/>
-      <c r="E200" s="22" t="n"/>
+      <c r="E200" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G200" s="22" t="n"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J200" s="23" t="n"/>
       <c r="K200" s="23" t="n"/>
-      <c r="L200" s="26" t="n"/>
+      <c r="L200" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M200" s="26" t="n"/>
       <c r="N200" s="26" t="n"/>
       <c r="O200" s="26" t="n"/>
       <c r="P200" s="26" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1" s="13">
-      <c r="A201" s="22" t="n"/>
-      <c r="B201" s="22" t="n"/>
-      <c r="C201" s="22" t="n"/>
+      <c r="A201" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B201" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C201" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D201" s="22" t="n"/>
-      <c r="E201" s="22" t="n"/>
+      <c r="E201" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G201" s="22" t="n"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J201" s="23" t="n"/>
       <c r="K201" s="23" t="n"/>
-      <c r="L201" s="26" t="n"/>
+      <c r="L201" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M201" s="26" t="n"/>
       <c r="N201" s="26" t="n"/>
       <c r="O201" s="26" t="n"/>
@@ -11821,7 +11974,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -12104,7 +12257,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Backup and Disaster Recovery</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -10275,7 +10275,7 @@
       <c r="G200" s="22" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J200" s="23" t="n"/>
@@ -10320,7 +10320,7 @@
       <c r="G201" s="22" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J201" s="23" t="n"/>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -1141,23 +1141,23 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Backup and Disaster Recovery</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1168,19 +1168,15 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1201,7 +1197,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1218,19 +1214,19 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1251,13 +1247,13 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1268,19 +1264,19 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1301,13 +1297,13 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
+          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1318,19 +1314,19 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1351,13 +1347,13 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
+          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1368,19 +1364,19 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1401,7 +1397,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
+          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1418,19 +1414,19 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1451,13 +1447,13 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
+          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1468,19 +1464,19 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1501,13 +1497,13 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
+          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1518,19 +1514,19 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1551,7 +1547,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
+          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1568,19 +1564,19 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1601,7 +1597,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1618,19 +1614,19 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1651,7 +1647,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1668,19 +1664,19 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1701,7 +1697,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
+          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1723,14 +1719,14 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1751,7 +1747,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
+          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1768,19 +1764,19 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1801,7 +1797,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
+          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1818,19 +1814,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1851,7 +1847,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
+          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1868,19 +1864,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1891,17 +1887,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
+          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1918,19 +1914,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1951,7 +1947,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Enforce or appended resource tags through Azure Policy</t>
+          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1968,19 +1964,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2001,7 +1997,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
+          <t>Enforce or appended resource tags through Azure Policy</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2018,19 +2014,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2051,7 +2047,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
+          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2080,7 +2076,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2101,7 +2097,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
+          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2130,7 +2126,7 @@
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2151,7 +2147,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Enforce no subscriptions are placed under the root management group</t>
+          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2168,14 +2164,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
+          <t>Enforce no subscriptions are placed under the root management group</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2213,14 +2214,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
+          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2258,14 +2259,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2286,13 +2287,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
+          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2311,7 +2312,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2332,13 +2333,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
+          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2349,7 +2350,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2357,7 +2358,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2378,13 +2379,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2395,19 +2396,15 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I34" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I34" s="16" t="n"/>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2428,7 +2425,7 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2445,19 +2442,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2478,13 +2475,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2495,19 +2492,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2528,13 +2525,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2545,19 +2542,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2578,13 +2575,13 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2595,19 +2592,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2628,7 +2625,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2645,19 +2642,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2668,23 +2665,23 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2695,15 +2692,19 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I40" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2724,13 +2725,13 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2741,7 +2742,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2749,7 +2750,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2765,12 +2766,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2787,19 +2788,15 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I42" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2820,7 +2817,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2835,13 +2832,21 @@
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
-      <c r="H43" s="16" t="n"/>
-      <c r="I43" s="16" t="n"/>
+      <c r="H43" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2862,7 +2867,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2877,21 +2882,13 @@
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
-      <c r="H44" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H44" s="16" t="n"/>
+      <c r="I44" s="16" t="n"/>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2912,7 +2909,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2941,7 +2938,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2962,7 +2959,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2979,19 +2976,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3012,7 +3009,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3029,19 +3026,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3062,7 +3059,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3079,19 +3076,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3112,7 +3109,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3129,19 +3126,19 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3162,13 +3159,13 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3179,15 +3176,19 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I50" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I50" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3208,13 +3209,13 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3225,7 +3226,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3233,7 +3234,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3254,7 +3255,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3271,7 +3272,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3279,7 +3280,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3300,7 +3301,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3317,14 +3318,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3345,7 +3346,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3362,7 +3363,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3370,7 +3371,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3391,7 +3392,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3408,14 +3409,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3436,7 +3437,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3453,14 +3454,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3481,7 +3482,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3498,14 +3499,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3526,7 +3527,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3543,14 +3544,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3571,7 +3572,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3588,14 +3589,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3633,14 +3634,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3661,7 +3662,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3678,14 +3679,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3706,7 +3707,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3723,14 +3724,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3741,17 +3742,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3768,19 +3769,15 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="n"/>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, ensure that WAF protection and policies are enabled in your Application Gateways</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3818,7 +3815,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
@@ -3830,7 +3827,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3851,7 +3848,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Ensure you are using Application Gateway v2 SKU</t>
+          <t>For secure delivery of HTTP/S apps, ensure that WAF protection and policies are enabled in your Application Gateways</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3868,7 +3865,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
@@ -3880,7 +3877,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3901,7 +3898,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>Ensure you are using Application Gateway v2 SKU</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3918,19 +3915,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3951,7 +3948,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3968,19 +3965,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4001,7 +3998,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4023,14 +4020,14 @@
       </c>
       <c r="I68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4051,7 +4048,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4080,7 +4077,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4101,7 +4098,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4118,7 +4115,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
@@ -4130,7 +4127,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4151,7 +4148,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4168,7 +4165,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4180,7 +4177,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4201,13 +4198,13 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4218,19 +4215,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4251,13 +4248,13 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4273,14 +4270,14 @@
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4296,12 +4293,12 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4318,15 +4315,19 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I74" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J74" s="23" t="n"/>
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4347,7 +4348,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4364,19 +4365,15 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="n"/>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4392,12 +4389,12 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4414,15 +4411,19 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I76" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J76" s="23" t="n"/>
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4444,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4461,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4469,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,13 +4490,13 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4507,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4515,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,13 +4536,13 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,7 +4553,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4560,7 +4561,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4581,13 +4582,13 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4598,7 +4599,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4606,7 +4607,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4627,13 +4628,13 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4644,7 +4645,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4652,7 +4653,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4668,18 +4669,18 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
       <c r="E82" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4690,19 +4691,15 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4720,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,15 +4737,19 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4770,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,7 +4787,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4794,7 +4795,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4815,7 +4816,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4832,7 +4833,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4840,7 +4841,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4861,7 +4862,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4878,7 +4879,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4886,7 +4887,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4907,7 +4908,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4924,19 +4925,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4957,7 +4954,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4974,19 +4971,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5007,7 +5004,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5024,19 +5021,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5057,7 +5054,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5074,15 +5071,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5103,13 +5104,13 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5120,7 +5121,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5128,7 +5129,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5144,18 +5145,18 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5166,19 +5167,15 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I92" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="n"/>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5199,7 +5196,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5216,7 +5213,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5228,7 +5225,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5249,7 +5246,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5278,7 +5275,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5299,7 +5296,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5316,7 +5313,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5328,7 +5325,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5349,7 +5346,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5366,7 +5363,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
@@ -5378,7 +5375,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5399,7 +5396,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5416,7 +5413,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5428,7 +5425,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5449,7 +5446,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5466,19 +5463,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5499,7 +5496,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5516,19 +5513,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5549,7 +5546,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5566,7 +5563,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5578,7 +5575,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5599,7 +5596,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5616,7 +5613,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
@@ -5628,7 +5625,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5649,7 +5646,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5666,7 +5663,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
@@ -5678,7 +5675,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5699,7 +5696,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5716,7 +5713,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5728,7 +5725,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5749,7 +5746,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
+          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5766,15 +5763,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5795,7 +5796,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Consider using Bastion to securely connect to your network.</t>
+          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5812,7 +5813,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5820,7 +5821,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5836,12 +5837,12 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Consider using Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5858,19 +5859,15 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5891,7 +5888,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5920,7 +5917,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5941,7 +5938,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5970,7 +5967,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5991,7 +5988,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6020,7 +6017,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6041,7 +6038,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6058,19 +6055,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6091,7 +6088,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6108,7 +6105,7 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6120,7 +6117,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6141,7 +6138,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6170,7 +6167,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6191,7 +6188,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6211,12 +6208,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I113" s="16" t="n"/>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6237,7 +6238,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6254,19 +6255,15 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6282,12 +6279,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6304,19 +6301,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6337,7 +6334,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6354,14 +6351,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6377,12 +6379,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6399,19 +6401,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6432,7 +6429,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6449,7 +6446,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6461,7 +6458,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6482,7 +6479,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6511,7 +6508,7 @@
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6532,7 +6529,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6561,7 +6558,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6582,7 +6579,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6604,14 +6601,14 @@
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6632,7 +6629,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6649,7 +6646,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
@@ -6661,7 +6658,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6682,7 +6679,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6699,7 +6696,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
@@ -6711,7 +6708,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6732,7 +6729,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6754,14 +6751,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6782,7 +6779,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6799,19 +6796,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6827,12 +6824,12 @@
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6849,19 +6846,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6882,7 +6879,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6904,14 +6901,14 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6932,7 +6929,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6949,19 +6946,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6982,7 +6979,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7004,14 +7001,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7032,7 +7029,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7054,14 +7051,14 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7082,7 +7079,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,7 +7108,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7132,7 +7129,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7161,7 +7158,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7182,7 +7179,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7211,7 +7208,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7227,12 +7224,12 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7249,14 +7246,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7277,7 +7279,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7294,19 +7296,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7327,7 +7324,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7344,19 +7341,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7377,7 +7374,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7392,7 +7389,11 @@
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7402,7 +7403,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7423,7 +7424,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7438,11 +7439,7 @@
         </is>
       </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H138" s="16" t="n"/>
       <c r="I138" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7452,7 +7449,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7473,7 +7470,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7495,14 +7492,14 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7523,7 +7520,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7545,14 +7542,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7573,7 +7570,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7595,14 +7592,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7618,12 +7615,12 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7640,19 +7637,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7673,7 +7670,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7690,14 +7687,19 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7718,7 +7720,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7742,7 +7744,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7763,7 +7765,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7781,18 +7783,13 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7813,7 +7810,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7835,14 +7832,14 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7863,7 +7860,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7892,7 +7889,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7913,7 +7910,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7931,13 +7928,18 @@
       <c r="H148" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7958,7 +7960,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7976,18 +7978,13 @@
       <c r="H149" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8008,7 +8005,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8026,13 +8023,18 @@
       <c r="H150" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8053,7 +8055,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8077,7 +8079,7 @@
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8098,7 +8100,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8115,14 +8117,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8143,7 +8145,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8160,14 +8162,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8178,23 +8180,23 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8205,14 +8207,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8223,23 +8225,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t xml:space="preserve">Network Topology and Connectivity </t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8250,14 +8252,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8278,13 +8280,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8295,14 +8297,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8313,7 +8315,7 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
@@ -8323,13 +8325,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8340,14 +8342,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8358,7 +8360,7 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
@@ -8368,7 +8370,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8385,14 +8387,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8413,7 +8415,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8430,14 +8432,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8458,13 +8460,13 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
       <c r="E160" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8475,14 +8477,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8503,7 +8505,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8520,14 +8522,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8548,7 +8550,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8565,14 +8567,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8593,7 +8595,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8610,14 +8612,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8638,13 +8640,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8655,14 +8657,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8683,13 +8685,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8700,14 +8702,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8728,7 +8730,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8745,14 +8747,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8773,13 +8775,13 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
       <c r="E167" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8790,14 +8792,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8818,7 +8820,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8835,14 +8837,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,18 +8860,18 @@
       </c>
       <c r="B169" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8880,14 +8882,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,12 +8905,12 @@
       </c>
       <c r="B170" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8925,14 +8927,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8953,13 +8955,13 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
       <c r="E171" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8977,7 +8979,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8998,7 +9000,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9015,14 +9017,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9043,7 +9045,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9067,7 +9069,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9088,13 +9090,13 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9105,14 +9107,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9133,7 +9135,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9157,7 +9159,7 @@
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9178,13 +9180,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9195,14 +9197,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9223,7 +9225,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9247,7 +9249,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9268,7 +9270,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9285,14 +9287,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9313,7 +9315,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9330,14 +9332,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9358,7 +9360,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9375,14 +9377,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,18 +9400,18 @@
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9420,14 +9422,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,12 +9445,12 @@
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9465,14 +9467,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9493,13 +9495,13 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
       <c r="E183" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9510,14 +9512,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9538,7 +9540,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9555,14 +9557,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9583,7 +9585,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9607,7 +9609,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9628,7 +9630,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9652,7 +9654,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9673,7 +9675,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9697,7 +9699,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9718,7 +9720,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9735,14 +9737,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9763,7 +9765,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9787,7 +9789,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9808,7 +9810,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9825,14 +9827,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9853,7 +9855,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9877,7 +9879,7 @@
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9898,7 +9900,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9915,14 +9917,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,12 +9940,12 @@
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9960,14 +9962,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,12 +9985,12 @@
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10005,14 +10007,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10033,7 +10035,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10050,14 +10052,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10078,7 +10080,7 @@
       </c>
       <c r="C196" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D196" s="22" t="n"/>
@@ -10095,14 +10097,14 @@
       <c r="G196" s="22" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
       <c r="L196" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M196" s="26" t="n"/>
@@ -10123,7 +10125,7 @@
       </c>
       <c r="C197" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D197" s="22" t="n"/>
@@ -10140,14 +10142,14 @@
       <c r="G197" s="22" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J197" s="23" t="n"/>
       <c r="K197" s="23" t="n"/>
       <c r="L197" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M197" s="26" t="n"/>
@@ -10168,7 +10170,7 @@
       </c>
       <c r="C198" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D198" s="22" t="n"/>
@@ -10185,14 +10187,14 @@
       <c r="G198" s="22" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J198" s="23" t="n"/>
       <c r="K198" s="23" t="n"/>
       <c r="L198" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M198" s="26" t="n"/>
@@ -10213,7 +10215,7 @@
       </c>
       <c r="C199" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D199" s="22" t="n"/>
@@ -10230,14 +10232,14 @@
       <c r="G199" s="22" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J199" s="23" t="n"/>
       <c r="K199" s="23" t="n"/>
       <c r="L199" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M199" s="26" t="n"/>
@@ -10258,7 +10260,7 @@
       </c>
       <c r="C200" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D200" s="22" t="n"/>
@@ -10275,14 +10277,14 @@
       <c r="G200" s="22" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J200" s="23" t="n"/>
       <c r="K200" s="23" t="n"/>
       <c r="L200" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M200" s="26" t="n"/>
@@ -10303,7 +10305,7 @@
       </c>
       <c r="C201" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D201" s="22" t="n"/>
@@ -10320,14 +10322,14 @@
       <c r="G201" s="22" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J201" s="23" t="n"/>
       <c r="K201" s="23" t="n"/>
       <c r="L201" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M201" s="26" t="n"/>
@@ -10336,75 +10338,225 @@
       <c r="P201" s="26" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1" s="13">
-      <c r="A202" s="22" t="n"/>
-      <c r="B202" s="22" t="n"/>
-      <c r="C202" s="22" t="n"/>
+      <c r="A202" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B202" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C202" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D202" s="22" t="n"/>
-      <c r="E202" s="22" t="n"/>
+      <c r="E202" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G202" s="22" t="n"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J202" s="23" t="n"/>
       <c r="K202" s="23" t="n"/>
-      <c r="L202" s="26" t="n"/>
+      <c r="L202" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M202" s="26" t="n"/>
       <c r="N202" s="26" t="n"/>
       <c r="O202" s="26" t="n"/>
       <c r="P202" s="26" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1" s="13">
-      <c r="A203" s="22" t="n"/>
-      <c r="B203" s="22" t="n"/>
-      <c r="C203" s="22" t="n"/>
+      <c r="A203" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B203" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C203" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D203" s="22" t="n"/>
-      <c r="E203" s="22" t="n"/>
+      <c r="E203" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G203" s="22" t="n"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J203" s="23" t="n"/>
       <c r="K203" s="23" t="n"/>
-      <c r="L203" s="26" t="n"/>
+      <c r="L203" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M203" s="26" t="n"/>
       <c r="N203" s="26" t="n"/>
       <c r="O203" s="26" t="n"/>
       <c r="P203" s="26" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1" s="13">
-      <c r="A204" s="22" t="n"/>
-      <c r="B204" s="22" t="n"/>
-      <c r="C204" s="22" t="n"/>
+      <c r="A204" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B204" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C204" s="22" t="inlineStr">
+        <is>
+          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
+        </is>
+      </c>
       <c r="D204" s="22" t="n"/>
-      <c r="E204" s="22" t="n"/>
+      <c r="E204" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G204" s="22" t="n"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J204" s="23" t="n"/>
       <c r="K204" s="23" t="n"/>
-      <c r="L204" s="26" t="n"/>
+      <c r="L204" s="26" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M204" s="26" t="n"/>
       <c r="N204" s="26" t="n"/>
       <c r="O204" s="26" t="n"/>
       <c r="P204" s="26" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1" s="13">
-      <c r="A205" s="22" t="n"/>
-      <c r="B205" s="22" t="n"/>
-      <c r="C205" s="22" t="n"/>
+      <c r="A205" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B205" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C205" s="22" t="inlineStr">
+        <is>
+          <t>Secure transfer to storage accounts should be enabled</t>
+        </is>
+      </c>
       <c r="D205" s="22" t="n"/>
-      <c r="E205" s="22" t="n"/>
+      <c r="E205" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G205" s="22" t="n"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J205" s="23" t="n"/>
       <c r="K205" s="23" t="n"/>
-      <c r="L205" s="26" t="n"/>
+      <c r="L205" s="26" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M205" s="26" t="n"/>
       <c r="N205" s="26" t="n"/>
       <c r="O205" s="26" t="n"/>
       <c r="P205" s="26" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1" s="13">
-      <c r="A206" s="22" t="n"/>
-      <c r="B206" s="22" t="n"/>
-      <c r="C206" s="22" t="n"/>
+      <c r="A206" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B206" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C206" s="22" t="inlineStr">
+        <is>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+        </is>
+      </c>
       <c r="D206" s="22" t="n"/>
-      <c r="E206" s="22" t="n"/>
+      <c r="E206" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G206" s="22" t="n"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J206" s="23" t="n"/>
       <c r="K206" s="23" t="n"/>
-      <c r="L206" s="26" t="n"/>
+      <c r="L206" s="26" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M206" s="26" t="n"/>
       <c r="N206" s="26" t="n"/>
       <c r="O206" s="26" t="n"/>
@@ -11974,7 +12126,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F207" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -1094,17 +1094,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Backup and Disaster Recovery</t>
+          <t>App Delivery</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1175,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1186,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Backup and Disaster Recovery</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,19 +1213,15 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1246,7 +1242,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1263,19 +1259,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1296,13 +1292,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1313,19 +1309,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1346,13 +1342,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
+          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1363,19 +1359,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1396,13 +1392,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
+          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1413,19 +1409,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1446,7 +1442,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
+          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1463,19 +1459,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1496,13 +1492,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
+          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1513,19 +1509,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1546,13 +1542,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
+          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,19 +1559,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1596,7 +1592,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
+          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1613,19 +1609,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1646,7 +1642,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1663,19 +1659,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1696,7 +1692,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1713,19 +1709,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1746,7 +1742,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
+          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1768,14 +1764,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1796,7 +1792,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
+          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1813,19 +1809,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1846,7 +1842,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
+          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1863,19 +1859,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1896,7 +1892,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
+          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1913,19 +1909,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1936,17 +1932,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
+          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1963,19 +1959,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1996,7 +1992,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Enforce or appended resource tags through Azure Policy</t>
+          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2013,19 +2009,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2046,7 +2042,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
+          <t>Enforce or appended resource tags through Azure Policy</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2063,19 +2059,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2096,7 +2092,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
+          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2125,7 +2121,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2146,7 +2142,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
+          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2175,7 +2171,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2196,7 +2192,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Enforce no subscriptions are placed under the root management group</t>
+          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2213,14 +2209,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
+          <t>Enforce no subscriptions are placed under the root management group</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2258,14 +2259,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
+          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2303,7 +2304,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2311,7 +2312,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2332,13 +2333,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
+          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2357,7 +2358,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2378,13 +2379,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
+          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2395,7 +2396,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2403,7 +2404,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2424,13 +2425,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2441,19 +2442,15 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2474,7 +2471,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2491,19 +2488,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2524,13 +2521,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2541,19 +2538,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2574,13 +2571,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2591,19 +2588,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2624,13 +2621,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2641,19 +2638,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2674,7 +2671,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2691,19 +2688,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2714,23 +2711,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2741,15 +2738,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2765,18 +2766,18 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2787,7 +2788,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2795,7 +2796,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2811,12 +2812,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2833,19 +2834,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2866,7 +2863,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2881,13 +2878,21 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2908,7 +2913,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2923,21 +2928,12 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2958,7 +2954,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2987,7 +2983,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3008,7 +3004,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3025,19 +3021,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3058,7 +3054,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3075,19 +3071,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3108,7 +3104,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3125,19 +3121,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3158,7 +3154,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3175,19 +3171,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3208,13 +3204,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3225,15 +3221,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3254,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3271,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3279,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3317,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3362,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3370,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3408,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3453,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3498,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3543,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3588,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3633,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3678,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3723,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3768,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3776,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3787,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,19 +3814,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3847,7 +3843,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, ensure that WAF protection and policies are enabled in your Application Gateways</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3864,7 +3860,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
@@ -3876,7 +3872,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3947,10 +3943,14 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="n"/>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
+        </is>
+      </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3964,19 +3964,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -4019,14 +4019,14 @@
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
@@ -4126,7 +4126,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,13 +4147,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4164,7 +4164,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4176,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4197,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,19 +4214,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4247,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4269,14 +4269,14 @@
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4297,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4314,19 +4314,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4342,18 +4338,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,7 +4360,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4372,7 +4368,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4388,18 +4384,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4410,19 +4406,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4438,18 +4430,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4452,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4468,7 +4460,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4484,18 +4476,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4498,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4514,7 +4506,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4530,18 +4522,18 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,7 +4544,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4560,7 +4552,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4576,18 +4568,18 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4598,7 +4590,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4606,7 +4598,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4622,18 +4614,18 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4644,15 +4636,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4668,18 +4664,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4690,15 +4686,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4719,13 +4719,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4736,19 +4736,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4769,7 +4765,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4786,7 +4782,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4794,7 +4790,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4815,13 +4811,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4832,7 +4828,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4840,7 +4836,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4861,7 +4857,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4878,15 +4874,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4924,15 +4924,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4953,7 +4957,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4970,19 +4974,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5003,13 +5003,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5020,19 +5020,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5048,12 +5044,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5070,19 +5066,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5098,15 +5094,19 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="n"/>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="inlineStr">
+        <is>
+          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
+        </is>
+      </c>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5120,15 +5120,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5144,18 +5148,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5166,15 +5170,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5195,7 +5203,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5212,7 +5220,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5224,7 +5232,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5245,7 +5253,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5262,7 +5270,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5274,7 +5282,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5295,7 +5303,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5312,7 +5320,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5324,7 +5332,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5345,7 +5353,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5362,19 +5370,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5395,13 +5403,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5412,7 +5420,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5424,7 +5432,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5445,7 +5453,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5462,7 +5470,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5474,7 +5482,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5495,7 +5503,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5512,19 +5520,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5545,7 +5553,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5562,7 +5570,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5574,7 +5582,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5595,7 +5603,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5612,7 +5620,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5624,7 +5632,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5645,7 +5653,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5662,19 +5670,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5695,7 +5699,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5712,19 +5716,15 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5740,18 +5740,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5762,19 +5762,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5790,18 +5790,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5812,15 +5812,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5836,18 +5840,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Consider using Bastion to securely connect to your network.</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5858,15 +5862,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5887,13 +5895,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5904,19 +5912,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5937,7 +5945,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5954,19 +5962,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5987,7 +5995,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6004,19 +6012,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6037,13 +6045,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6054,19 +6062,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6087,13 +6091,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6104,7 +6108,7 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6116,7 +6120,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6132,18 +6136,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6154,19 +6158,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6182,12 +6186,12 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6204,19 +6208,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6232,18 +6236,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6254,15 +6258,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6278,12 +6286,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6300,19 +6308,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6328,18 +6336,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6350,19 +6358,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6378,18 +6386,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6400,14 +6408,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6428,13 +6441,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6445,7 +6458,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6457,7 +6470,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6478,13 +6491,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6495,19 +6508,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6528,13 +6536,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6545,19 +6553,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6578,13 +6582,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6595,19 +6599,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6628,13 +6628,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6645,19 +6645,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6673,18 +6669,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6695,19 +6691,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6723,12 +6719,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6745,7 +6741,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
@@ -6757,7 +6753,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6773,12 +6769,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6795,19 +6791,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6823,12 +6819,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6845,19 +6841,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6878,7 +6874,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6895,19 +6891,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6923,12 +6919,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6945,19 +6941,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6973,12 +6964,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6995,19 +6986,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7023,12 +7014,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7045,19 +7036,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7073,12 +7064,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7093,21 +7084,17 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7123,12 +7110,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7145,19 +7132,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7173,12 +7160,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7195,19 +7182,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7223,12 +7210,12 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7245,19 +7232,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7273,12 +7260,12 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7295,14 +7282,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7318,18 +7305,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7340,19 +7327,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7368,18 +7355,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7390,19 +7377,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7418,12 +7400,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7438,17 +7420,21 @@
         </is>
       </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7464,12 +7450,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7486,19 +7472,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7514,12 +7495,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7536,19 +7517,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7564,12 +7540,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7586,19 +7562,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7609,23 +7580,23 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t xml:space="preserve">Network Topology and Connectivity </t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7636,19 +7607,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7659,23 +7625,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7686,19 +7652,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7709,17 +7670,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7736,14 +7697,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7754,23 +7715,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7781,14 +7742,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7799,17 +7760,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7826,19 +7787,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7849,23 +7805,23 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7876,19 +7832,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7899,23 +7850,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7926,19 +7877,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7949,23 +7895,23 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7976,14 +7922,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7994,23 +7940,23 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8021,19 +7967,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -8044,23 +7985,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8071,14 +8012,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8089,17 +8030,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8116,14 +8057,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8134,17 +8075,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8161,14 +8102,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8179,17 +8120,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8206,14 +8147,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8224,23 +8165,23 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Network Topology and Connectivity </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8251,14 +8192,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8269,23 +8210,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8296,14 +8237,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8314,23 +8255,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8341,14 +8282,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8359,17 +8300,17 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8386,14 +8327,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8409,18 +8350,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8431,14 +8372,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8454,12 +8395,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8476,14 +8417,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8499,18 +8440,18 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8521,14 +8462,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8544,18 +8485,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8566,14 +8507,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8589,18 +8530,18 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8611,14 +8552,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8634,18 +8575,18 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8656,14 +8597,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8679,18 +8620,18 @@
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8701,14 +8642,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8724,12 +8665,12 @@
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8746,14 +8687,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8769,12 +8710,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8791,14 +8732,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8814,12 +8755,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8836,14 +8777,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8859,18 +8800,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8881,14 +8822,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8904,12 +8845,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8926,14 +8867,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8949,18 +8890,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8971,14 +8912,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8994,12 +8935,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -9016,14 +8957,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -9039,12 +8980,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -9061,14 +9002,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9084,12 +9025,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9106,14 +9047,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9129,12 +9070,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9151,14 +9092,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9174,18 +9115,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9196,14 +9137,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9219,12 +9160,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9241,14 +9182,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9264,12 +9205,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9286,14 +9227,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9309,12 +9250,12 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9331,14 +9272,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9354,12 +9295,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9376,14 +9317,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9399,12 +9340,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9421,14 +9362,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9444,12 +9385,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9466,14 +9407,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9489,18 +9430,18 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9511,14 +9452,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9534,12 +9475,12 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9556,14 +9497,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9579,12 +9520,12 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9601,14 +9542,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9624,12 +9565,12 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9646,14 +9587,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9669,12 +9610,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9691,14 +9632,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9714,12 +9655,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9736,14 +9677,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9759,12 +9700,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9781,14 +9722,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9799,23 +9740,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9826,14 +9767,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9844,23 +9785,23 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9871,14 +9812,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9889,23 +9830,23 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9916,14 +9857,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9932,630 +9873,210 @@
       <c r="P192" s="25" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1">
-      <c r="A193" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B193" s="21" t="inlineStr">
-        <is>
-          <t>Secrets</t>
-        </is>
-      </c>
-      <c r="C193" s="21" t="inlineStr">
-        <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
-        </is>
-      </c>
+      <c r="A193" s="21" t="n"/>
+      <c r="B193" s="21" t="n"/>
+      <c r="C193" s="21" t="n"/>
       <c r="D193" s="21" t="n"/>
-      <c r="E193" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E193" s="21" t="n"/>
       <c r="G193" s="21" t="n"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
-      <c r="L193" s="25" t="inlineStr">
-        <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
-        </is>
-      </c>
+      <c r="L193" s="25" t="n"/>
       <c r="M193" s="25" t="n"/>
       <c r="N193" s="25" t="n"/>
       <c r="O193" s="25" t="n"/>
       <c r="P193" s="25" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1">
-      <c r="A194" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B194" s="21" t="inlineStr">
-        <is>
-          <t>Secrets</t>
-        </is>
-      </c>
-      <c r="C194" s="21" t="inlineStr">
-        <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
-        </is>
-      </c>
+      <c r="A194" s="21" t="n"/>
+      <c r="B194" s="21" t="n"/>
+      <c r="C194" s="21" t="n"/>
       <c r="D194" s="21" t="n"/>
-      <c r="E194" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E194" s="21" t="n"/>
       <c r="G194" s="21" t="n"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
-      <c r="L194" s="25" t="inlineStr">
-        <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
-        </is>
-      </c>
+      <c r="L194" s="25" t="n"/>
       <c r="M194" s="25" t="n"/>
       <c r="N194" s="25" t="n"/>
       <c r="O194" s="25" t="n"/>
       <c r="P194" s="25" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1">
-      <c r="A195" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B195" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C195" s="21" t="inlineStr">
-        <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
-        </is>
-      </c>
+      <c r="A195" s="21" t="n"/>
+      <c r="B195" s="21" t="n"/>
+      <c r="C195" s="21" t="n"/>
       <c r="D195" s="21" t="n"/>
-      <c r="E195" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E195" s="21" t="n"/>
       <c r="G195" s="21" t="n"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
-        </is>
-      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
-      <c r="L195" s="25" t="inlineStr">
-        <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
-        </is>
-      </c>
+      <c r="L195" s="25" t="n"/>
       <c r="M195" s="25" t="n"/>
       <c r="N195" s="25" t="n"/>
       <c r="O195" s="25" t="n"/>
       <c r="P195" s="25" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1">
-      <c r="A196" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B196" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C196" s="21" t="inlineStr">
-        <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
-        </is>
-      </c>
+      <c r="A196" s="21" t="n"/>
+      <c r="B196" s="21" t="n"/>
+      <c r="C196" s="21" t="n"/>
       <c r="D196" s="21" t="n"/>
-      <c r="E196" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E196" s="21" t="n"/>
       <c r="G196" s="21" t="n"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
-        </is>
-      </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
-      <c r="L196" s="25" t="inlineStr">
-        <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
-        </is>
-      </c>
+      <c r="L196" s="25" t="n"/>
       <c r="M196" s="25" t="n"/>
       <c r="N196" s="25" t="n"/>
       <c r="O196" s="25" t="n"/>
       <c r="P196" s="25" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1">
-      <c r="A197" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B197" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C197" s="21" t="inlineStr">
-        <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
-        </is>
-      </c>
+      <c r="A197" s="21" t="n"/>
+      <c r="B197" s="21" t="n"/>
+      <c r="C197" s="21" t="n"/>
       <c r="D197" s="21" t="n"/>
-      <c r="E197" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E197" s="21" t="n"/>
       <c r="G197" s="21" t="n"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
-      <c r="L197" s="25" t="inlineStr">
-        <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
-        </is>
-      </c>
+      <c r="L197" s="25" t="n"/>
       <c r="M197" s="25" t="n"/>
       <c r="N197" s="25" t="n"/>
       <c r="O197" s="25" t="n"/>
       <c r="P197" s="25" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1">
-      <c r="A198" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B198" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C198" s="21" t="inlineStr">
-        <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
-        </is>
-      </c>
+      <c r="A198" s="21" t="n"/>
+      <c r="B198" s="21" t="n"/>
+      <c r="C198" s="21" t="n"/>
       <c r="D198" s="21" t="n"/>
-      <c r="E198" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E198" s="21" t="n"/>
       <c r="G198" s="21" t="n"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
-      <c r="L198" s="25" t="inlineStr">
-        <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
-        </is>
-      </c>
+      <c r="L198" s="25" t="n"/>
       <c r="M198" s="25" t="n"/>
       <c r="N198" s="25" t="n"/>
       <c r="O198" s="25" t="n"/>
       <c r="P198" s="25" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1">
-      <c r="A199" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B199" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C199" s="21" t="inlineStr">
-        <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
-        </is>
-      </c>
+      <c r="A199" s="21" t="n"/>
+      <c r="B199" s="21" t="n"/>
+      <c r="C199" s="21" t="n"/>
       <c r="D199" s="21" t="n"/>
-      <c r="E199" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E199" s="21" t="n"/>
       <c r="G199" s="21" t="n"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
-      <c r="L199" s="25" t="inlineStr">
-        <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
-        </is>
-      </c>
+      <c r="L199" s="25" t="n"/>
       <c r="M199" s="25" t="n"/>
       <c r="N199" s="25" t="n"/>
       <c r="O199" s="25" t="n"/>
       <c r="P199" s="25" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1">
-      <c r="A200" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B200" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C200" s="21" t="inlineStr">
-        <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
-        </is>
-      </c>
+      <c r="A200" s="21" t="n"/>
+      <c r="B200" s="21" t="n"/>
+      <c r="C200" s="21" t="n"/>
       <c r="D200" s="21" t="n"/>
-      <c r="E200" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E200" s="21" t="n"/>
       <c r="G200" s="21" t="n"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
-      <c r="L200" s="25" t="inlineStr">
-        <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
-        </is>
-      </c>
+      <c r="L200" s="25" t="n"/>
       <c r="M200" s="25" t="n"/>
       <c r="N200" s="25" t="n"/>
       <c r="O200" s="25" t="n"/>
       <c r="P200" s="25" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1">
-      <c r="A201" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B201" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C201" s="21" t="inlineStr">
-        <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
-        </is>
-      </c>
+      <c r="A201" s="21" t="n"/>
+      <c r="B201" s="21" t="n"/>
+      <c r="C201" s="21" t="n"/>
       <c r="D201" s="21" t="n"/>
-      <c r="E201" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E201" s="21" t="n"/>
       <c r="G201" s="21" t="n"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
-        </is>
-      </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
-      <c r="L201" s="25" t="inlineStr">
-        <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
-        </is>
-      </c>
+      <c r="L201" s="25" t="n"/>
       <c r="M201" s="25" t="n"/>
       <c r="N201" s="25" t="n"/>
       <c r="O201" s="25" t="n"/>
       <c r="P201" s="25" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1">
-      <c r="A202" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B202" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C202" s="21" t="inlineStr">
-        <is>
-          <t>Plan how new azure services will be implemented</t>
-        </is>
-      </c>
+      <c r="A202" s="21" t="n"/>
+      <c r="B202" s="21" t="n"/>
+      <c r="C202" s="21" t="n"/>
       <c r="D202" s="21" t="n"/>
-      <c r="E202" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E202" s="21" t="n"/>
       <c r="G202" s="21" t="n"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
-      <c r="L202" s="25" t="inlineStr">
-        <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
-        </is>
-      </c>
+      <c r="L202" s="25" t="n"/>
       <c r="M202" s="25" t="n"/>
       <c r="N202" s="25" t="n"/>
       <c r="O202" s="25" t="n"/>
       <c r="P202" s="25" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1">
-      <c r="A203" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B203" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C203" s="21" t="inlineStr">
-        <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
-        </is>
-      </c>
+      <c r="A203" s="21" t="n"/>
+      <c r="B203" s="21" t="n"/>
+      <c r="C203" s="21" t="n"/>
       <c r="D203" s="21" t="n"/>
-      <c r="E203" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E203" s="21" t="n"/>
       <c r="G203" s="21" t="n"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
-      <c r="L203" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L203" s="25" t="n"/>
       <c r="M203" s="25" t="n"/>
       <c r="N203" s="25" t="n"/>
       <c r="O203" s="25" t="n"/>
       <c r="P203" s="25" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
-        </is>
-      </c>
-      <c r="B204" s="21" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="C204" s="21" t="inlineStr">
-        <is>
-          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
-        </is>
-      </c>
+      <c r="A204" s="21" t="n"/>
+      <c r="B204" s="21" t="n"/>
+      <c r="C204" s="21" t="n"/>
       <c r="D204" s="21" t="n"/>
-      <c r="E204" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E204" s="21" t="n"/>
       <c r="G204" s="21" t="n"/>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
-        </is>
-      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
-      <c r="L204" s="25" t="inlineStr">
-        <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
-        </is>
-      </c>
+      <c r="L204" s="25" t="n"/>
       <c r="M204" s="25" t="n"/>
       <c r="N204" s="25" t="n"/>
       <c r="O204" s="25" t="n"/>
       <c r="P204" s="25" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
-      <c r="A205" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
-        </is>
-      </c>
-      <c r="B205" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C205" s="21" t="inlineStr">
-        <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
-        </is>
-      </c>
+      <c r="A205" s="21" t="n"/>
+      <c r="B205" s="21" t="n"/>
+      <c r="C205" s="21" t="n"/>
       <c r="D205" s="21" t="n"/>
-      <c r="E205" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E205" s="21" t="n"/>
       <c r="G205" s="21" t="n"/>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
-        </is>
-      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
-      <c r="L205" s="25" t="inlineStr">
-        <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
-        </is>
-      </c>
+      <c r="L205" s="25" t="n"/>
       <c r="M205" s="25" t="n"/>
       <c r="N205" s="25" t="n"/>
       <c r="O205" s="25" t="n"/>
       <c r="P205" s="25" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
-        </is>
-      </c>
-      <c r="B206" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C206" s="21" t="inlineStr">
-        <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
-        </is>
-      </c>
+      <c r="A206" s="21" t="n"/>
+      <c r="B206" s="21" t="n"/>
+      <c r="C206" s="21" t="n"/>
       <c r="D206" s="21" t="n"/>
-      <c r="E206" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E206" s="21" t="n"/>
       <c r="G206" s="21" t="n"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
-        </is>
-      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
-      <c r="L206" s="25" t="inlineStr">
-        <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
-        </is>
-      </c>
+      <c r="L206" s="25" t="n"/>
       <c r="M206" s="25" t="n"/>
       <c r="N206" s="25" t="n"/>
       <c r="O206" s="25" t="n"/>
@@ -12089,7 +11610,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F207" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F193" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -1459,7 +1459,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
@@ -8580,10 +8580,14 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D164" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D164" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E164" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -8597,7 +8601,7 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
@@ -8763,7 +8767,11 @@
           <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
-      <c r="D168" s="21" t="n"/>
+      <c r="D168" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E168" s="21" t="inlineStr">
         <is>
           <t>Medium</t>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -3943,14 +3943,10 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="inlineStr">
-        <is>
-          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
-        </is>
-      </c>
+          <t>Your application gateways should be deployed in subnets with IP prefixes equal or larger than /26</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3964,7 +3960,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
@@ -3976,7 +3972,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3997,10 +3993,14 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="n"/>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="inlineStr">
+        <is>
+          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
+        </is>
+      </c>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4019,14 +4019,14 @@
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
@@ -4126,7 +4126,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,13 +4147,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4164,7 +4164,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4176,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4197,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,19 +4214,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4247,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4269,14 +4269,14 @@
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4297,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4314,15 +4314,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4343,7 +4347,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4360,7 +4364,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4368,7 +4372,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4389,7 +4393,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4406,7 +4410,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4414,7 +4418,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4435,13 +4439,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4452,7 +4456,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4460,7 +4464,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4481,13 +4485,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4498,7 +4502,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4506,7 +4510,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4527,13 +4531,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4544,7 +4548,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4552,7 +4556,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4568,18 +4572,18 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4590,7 +4594,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4598,7 +4602,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4614,18 +4618,18 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4636,19 +4640,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4664,12 +4664,12 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4686,19 +4686,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4714,18 +4710,18 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4736,15 +4732,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4782,15 +4782,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4811,13 +4815,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
+          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4828,7 +4832,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4836,7 +4840,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4857,7 +4861,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4874,19 +4878,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,13 +4907,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4924,19 +4924,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4957,13 +4953,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4974,7 +4970,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4982,7 +4978,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5003,13 +4999,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5020,15 +5016,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5066,19 +5066,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5094,19 +5094,15 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="inlineStr">
-        <is>
-          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
-        </is>
-      </c>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5120,19 +5116,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5148,18 +5140,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5170,19 +5162,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5203,7 +5191,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5220,7 +5208,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5232,7 +5220,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5253,10 +5241,14 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="n"/>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
+        </is>
+      </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5270,7 +5262,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5282,7 +5274,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5303,7 +5295,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5320,7 +5312,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5332,7 +5324,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5353,7 +5345,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5370,19 +5362,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5403,13 +5395,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5420,7 +5412,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5432,7 +5424,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5453,7 +5445,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5470,7 +5462,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5482,7 +5474,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5503,7 +5495,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5520,19 +5512,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5553,13 +5545,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5570,7 +5562,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5582,7 +5574,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5603,7 +5595,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5620,7 +5612,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5632,7 +5624,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5653,7 +5645,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5670,15 +5662,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5699,7 +5695,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5716,15 +5712,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5740,18 +5740,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5762,19 +5762,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5790,18 +5790,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5812,19 +5812,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5840,12 +5836,12 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5862,19 +5858,15 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5895,7 +5887,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5912,19 +5904,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5945,13 +5937,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5962,19 +5954,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5995,13 +5987,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6012,19 +6004,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6045,13 +6037,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6062,15 +6054,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6091,13 +6087,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6108,7 +6104,7 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6120,7 +6116,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6136,18 +6132,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6158,19 +6154,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6186,18 +6182,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6208,19 +6204,15 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6236,18 +6228,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6258,19 +6250,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6291,7 +6283,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6308,19 +6300,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6341,13 +6328,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6358,19 +6345,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6391,7 +6373,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6408,19 +6390,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6441,13 +6423,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6458,7 +6440,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6470,7 +6452,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6491,13 +6473,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6508,14 +6490,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6536,13 +6523,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6553,15 +6540,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6582,13 +6573,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6599,15 +6590,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6628,7 +6623,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6645,15 +6640,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6669,12 +6668,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6691,19 +6690,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6719,18 +6718,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6741,19 +6740,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6769,18 +6764,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6791,19 +6786,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6819,18 +6810,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6841,19 +6832,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6869,18 +6855,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6891,19 +6877,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6919,18 +6900,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6941,14 +6922,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6964,18 +6945,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6986,19 +6967,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7014,12 +6995,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7036,19 +7017,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7064,12 +7045,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7084,17 +7065,21 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7110,12 +7095,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7132,19 +7117,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7160,12 +7145,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7182,19 +7167,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7210,18 +7195,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7232,19 +7217,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7260,18 +7240,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7282,14 +7262,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7305,18 +7285,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7327,19 +7307,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7355,18 +7330,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7377,14 +7352,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7400,12 +7380,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7422,19 +7402,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7450,12 +7430,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7470,16 +7450,17 @@
         </is>
       </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+      <c r="H139" s="15" t="n"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7495,12 +7476,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7517,14 +7498,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7540,12 +7526,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7562,14 +7548,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7580,23 +7571,23 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Network Topology and Connectivity </t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7607,14 +7598,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7625,23 +7621,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7652,14 +7648,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7670,23 +7666,23 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
       <c r="E144" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7697,14 +7693,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7715,23 +7711,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7742,14 +7738,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7760,17 +7761,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7787,14 +7788,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7805,23 +7806,23 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7832,14 +7833,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7850,23 +7851,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7877,14 +7878,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7895,23 +7896,23 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7922,14 +7923,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7940,23 +7941,23 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7967,14 +7968,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7985,17 +7986,17 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8012,14 +8013,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8030,7 +8031,7 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
@@ -8040,13 +8041,13 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8057,14 +8058,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8075,7 +8076,7 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
@@ -8085,7 +8086,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8102,14 +8103,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8130,13 +8131,13 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8147,14 +8148,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8175,13 +8176,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8192,14 +8193,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8220,13 +8221,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8237,14 +8238,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8260,12 +8261,12 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8282,14 +8283,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8305,18 +8306,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8327,14 +8328,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8350,18 +8351,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8372,14 +8373,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8395,18 +8396,18 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8417,14 +8418,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8440,12 +8441,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8462,14 +8463,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8485,18 +8486,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8507,14 +8508,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8530,12 +8531,12 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8552,14 +8553,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8575,22 +8576,18 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D164" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
+      <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8601,14 +8598,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8624,12 +8621,12 @@
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8646,14 +8643,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8674,13 +8671,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8691,14 +8688,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8719,7 +8716,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8736,14 +8733,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8764,14 +8761,10 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D168" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+        </is>
+      </c>
+      <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -8785,14 +8778,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8808,18 +8801,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8830,14 +8823,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8853,12 +8846,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8875,14 +8868,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8898,18 +8891,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8920,14 +8913,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8943,12 +8936,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,14 +8958,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8988,15 +8981,19 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
-        </is>
-      </c>
-      <c r="D173" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D173" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E173" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9010,14 +9007,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9033,12 +9030,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9055,14 +9052,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9078,12 +9075,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9100,14 +9097,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9123,12 +9120,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9145,14 +9142,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9168,15 +9165,19 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
-        </is>
-      </c>
-      <c r="D177" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D177" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E177" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9190,14 +9191,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9218,13 +9219,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9235,14 +9236,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9263,7 +9264,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9280,14 +9281,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9308,7 +9309,7 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9332,7 +9333,7 @@
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9348,12 +9349,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9370,14 +9371,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9393,12 +9394,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9415,14 +9416,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9438,12 +9439,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9460,14 +9461,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9483,12 +9484,12 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9505,14 +9506,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9528,12 +9529,12 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9550,14 +9551,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9573,12 +9574,12 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9595,14 +9596,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9618,12 +9619,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9640,14 +9641,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9663,12 +9664,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9685,14 +9686,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9708,12 +9709,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9730,14 +9731,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9748,23 +9749,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9775,14 +9776,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9793,7 +9794,7 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
@@ -9803,13 +9804,13 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9820,14 +9821,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9838,7 +9839,7 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
@@ -9848,13 +9849,13 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9865,14 +9866,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9881,135 +9882,405 @@
       <c r="P192" s="25" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1">
-      <c r="A193" s="21" t="n"/>
-      <c r="B193" s="21" t="n"/>
-      <c r="C193" s="21" t="n"/>
+      <c r="A193" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C193" s="21" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D193" s="21" t="n"/>
-      <c r="E193" s="21" t="n"/>
+      <c r="E193" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="21" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
-      <c r="L193" s="25" t="n"/>
+      <c r="L193" s="25" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M193" s="25" t="n"/>
       <c r="N193" s="25" t="n"/>
       <c r="O193" s="25" t="n"/>
       <c r="P193" s="25" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1">
-      <c r="A194" s="21" t="n"/>
-      <c r="B194" s="21" t="n"/>
-      <c r="C194" s="21" t="n"/>
+      <c r="A194" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B194" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C194" s="21" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D194" s="21" t="n"/>
-      <c r="E194" s="21" t="n"/>
+      <c r="E194" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="21" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
-      <c r="L194" s="25" t="n"/>
+      <c r="L194" s="25" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M194" s="25" t="n"/>
       <c r="N194" s="25" t="n"/>
       <c r="O194" s="25" t="n"/>
       <c r="P194" s="25" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1">
-      <c r="A195" s="21" t="n"/>
-      <c r="B195" s="21" t="n"/>
-      <c r="C195" s="21" t="n"/>
+      <c r="A195" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B195" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C195" s="21" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D195" s="21" t="n"/>
-      <c r="E195" s="21" t="n"/>
+      <c r="E195" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="21" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
-      <c r="L195" s="25" t="n"/>
+      <c r="L195" s="25" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M195" s="25" t="n"/>
       <c r="N195" s="25" t="n"/>
       <c r="O195" s="25" t="n"/>
       <c r="P195" s="25" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1">
-      <c r="A196" s="21" t="n"/>
-      <c r="B196" s="21" t="n"/>
-      <c r="C196" s="21" t="n"/>
+      <c r="A196" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B196" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C196" s="21" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D196" s="21" t="n"/>
-      <c r="E196" s="21" t="n"/>
+      <c r="E196" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G196" s="21" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
-      <c r="L196" s="25" t="n"/>
+      <c r="L196" s="25" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M196" s="25" t="n"/>
       <c r="N196" s="25" t="n"/>
       <c r="O196" s="25" t="n"/>
       <c r="P196" s="25" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1">
-      <c r="A197" s="21" t="n"/>
-      <c r="B197" s="21" t="n"/>
-      <c r="C197" s="21" t="n"/>
+      <c r="A197" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B197" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C197" s="21" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D197" s="21" t="n"/>
-      <c r="E197" s="21" t="n"/>
+      <c r="E197" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G197" s="21" t="n"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
-      <c r="L197" s="25" t="n"/>
+      <c r="L197" s="25" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M197" s="25" t="n"/>
       <c r="N197" s="25" t="n"/>
       <c r="O197" s="25" t="n"/>
       <c r="P197" s="25" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1">
-      <c r="A198" s="21" t="n"/>
-      <c r="B198" s="21" t="n"/>
-      <c r="C198" s="21" t="n"/>
+      <c r="A198" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B198" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C198" s="21" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D198" s="21" t="n"/>
-      <c r="E198" s="21" t="n"/>
+      <c r="E198" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G198" s="21" t="n"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
-      <c r="L198" s="25" t="n"/>
+      <c r="L198" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M198" s="25" t="n"/>
       <c r="N198" s="25" t="n"/>
       <c r="O198" s="25" t="n"/>
       <c r="P198" s="25" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1">
-      <c r="A199" s="21" t="n"/>
-      <c r="B199" s="21" t="n"/>
-      <c r="C199" s="21" t="n"/>
+      <c r="A199" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B199" s="21" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C199" s="21" t="inlineStr">
+        <is>
+          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
+        </is>
+      </c>
       <c r="D199" s="21" t="n"/>
-      <c r="E199" s="21" t="n"/>
+      <c r="E199" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G199" s="21" t="n"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
-      <c r="L199" s="25" t="n"/>
+      <c r="L199" s="25" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M199" s="25" t="n"/>
       <c r="N199" s="25" t="n"/>
       <c r="O199" s="25" t="n"/>
       <c r="P199" s="25" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1">
-      <c r="A200" s="21" t="n"/>
-      <c r="B200" s="21" t="n"/>
-      <c r="C200" s="21" t="n"/>
+      <c r="A200" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B200" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C200" s="21" t="inlineStr">
+        <is>
+          <t>Secure transfer to storage accounts should be enabled</t>
+        </is>
+      </c>
       <c r="D200" s="21" t="n"/>
-      <c r="E200" s="21" t="n"/>
+      <c r="E200" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G200" s="21" t="n"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
-      <c r="L200" s="25" t="n"/>
+      <c r="L200" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M200" s="25" t="n"/>
       <c r="N200" s="25" t="n"/>
       <c r="O200" s="25" t="n"/>
       <c r="P200" s="25" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1">
-      <c r="A201" s="21" t="n"/>
-      <c r="B201" s="21" t="n"/>
-      <c r="C201" s="21" t="n"/>
+      <c r="A201" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B201" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C201" s="21" t="inlineStr">
+        <is>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+        </is>
+      </c>
       <c r="D201" s="21" t="n"/>
-      <c r="E201" s="21" t="n"/>
+      <c r="E201" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G201" s="21" t="n"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
-      <c r="L201" s="25" t="n"/>
+      <c r="L201" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M201" s="25" t="n"/>
       <c r="N201" s="25" t="n"/>
       <c r="O201" s="25" t="n"/>
@@ -11618,7 +11889,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F193" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -5345,13 +5345,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5362,19 +5362,15 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5395,13 +5391,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5412,19 +5408,15 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5445,7 +5437,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5462,7 +5454,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5474,7 +5466,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5495,7 +5487,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5512,19 +5504,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5545,13 +5537,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5562,7 +5554,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5574,7 +5566,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5595,7 +5587,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5612,19 +5604,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5645,13 +5637,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5662,7 +5654,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5674,7 +5666,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5695,7 +5687,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5712,7 +5704,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
@@ -5724,7 +5716,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5745,7 +5737,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5762,7 +5754,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5774,7 +5766,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5795,7 +5787,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5812,15 +5804,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5841,13 +5837,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5858,15 +5854,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5882,18 +5882,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5904,19 +5904,15 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5932,18 +5928,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5954,19 +5950,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5987,7 +5979,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6016,7 +6008,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6037,13 +6029,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6054,19 +6046,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6087,13 +6079,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6104,19 +6096,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6137,13 +6129,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6154,19 +6146,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6187,13 +6179,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6207,12 +6199,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I113" s="15" t="n"/>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6233,13 +6229,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6250,19 +6246,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6278,18 +6274,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6300,14 +6296,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6323,18 +6319,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6345,14 +6341,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6373,13 +6374,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6390,19 +6391,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6423,7 +6419,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6440,19 +6436,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6473,13 +6465,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6490,7 +6482,7 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6502,7 +6494,7 @@
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6523,7 +6515,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6540,19 +6532,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6573,7 +6565,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6590,19 +6582,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6623,13 +6615,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6640,19 +6632,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6673,13 +6665,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6690,19 +6682,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6723,7 +6715,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6740,15 +6732,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6769,7 +6765,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6786,15 +6782,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6832,14 +6832,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6877,14 +6877,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6922,14 +6922,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6945,12 +6945,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6967,19 +6967,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6995,18 +6990,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7017,19 +7012,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7050,13 +7040,13 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7067,19 +7057,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7100,7 +7090,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7122,14 +7112,14 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7150,7 +7140,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7172,14 +7162,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7195,18 +7185,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7217,14 +7207,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7240,18 +7235,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use at least a /27 prefix for your Gateway subnets</t>
+          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7262,14 +7257,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7290,13 +7290,13 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7307,14 +7307,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7335,13 +7335,13 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7352,19 +7352,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7385,7 +7380,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7402,19 +7397,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7435,7 +7425,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7450,17 +7440,21 @@
         </is>
       </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7481,7 +7475,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7498,7 +7492,7 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7510,7 +7504,7 @@
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7531,7 +7525,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7546,21 +7540,17 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H141" s="15" t="n"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7576,12 +7566,12 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7598,19 +7588,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7626,12 +7616,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7648,14 +7638,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7676,13 +7671,13 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
       <c r="E144" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7693,14 +7688,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7739,18 +7739,13 @@
       <c r="H145" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7771,13 +7766,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7788,14 +7783,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7816,7 +7811,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7833,14 +7828,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7878,14 +7878,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7923,14 +7923,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7968,14 +7968,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7996,13 +7996,13 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8013,14 +8013,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8031,23 +8031,23 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8058,14 +8058,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8076,23 +8076,23 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8103,14 +8103,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8121,7 +8121,7 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8148,14 +8148,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8166,7 +8166,7 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8193,14 +8193,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8238,14 +8238,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8266,13 +8266,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8283,14 +8283,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8328,14 +8328,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8373,14 +8373,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8418,14 +8418,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8446,13 +8446,13 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8463,14 +8463,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8491,13 +8491,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8508,14 +8508,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8553,14 +8553,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8581,13 +8581,13 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8598,14 +8598,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8643,14 +8643,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8666,18 +8666,18 @@
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8688,14 +8688,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8711,12 +8711,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8733,14 +8733,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8761,13 +8761,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8785,7 +8785,7 @@
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8823,14 +8823,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8896,13 +8896,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8913,14 +8913,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8986,17 +8986,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D173" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+        </is>
+      </c>
+      <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9007,14 +9003,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9035,7 +9031,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9059,7 +9055,7 @@
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9080,10 +9076,14 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
-        </is>
-      </c>
-      <c r="D175" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D175" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E175" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9097,14 +9097,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9142,14 +9142,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9170,14 +9170,10 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D177" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
+      <c r="D177" s="21" t="n"/>
       <c r="E177" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9191,14 +9187,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9214,18 +9210,18 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9236,14 +9232,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9259,15 +9255,19 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9281,14 +9281,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9309,13 +9309,13 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9326,14 +9326,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9371,14 +9371,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9423,7 +9423,7 @@
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9468,7 +9468,7 @@
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9513,7 +9513,7 @@
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9551,14 +9551,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9603,7 +9603,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9641,14 +9641,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9693,7 +9693,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9731,14 +9731,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9754,12 +9754,12 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9776,14 +9776,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9799,12 +9799,12 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9821,14 +9821,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9866,14 +9866,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9911,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9956,14 +9956,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10001,14 +10001,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10046,14 +10046,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10091,14 +10091,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10136,14 +10136,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10154,23 +10154,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10181,14 +10181,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10199,7 +10199,7 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
@@ -10209,13 +10209,13 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10226,14 +10226,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10271,14 +10271,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10287,30 +10287,90 @@
       <c r="P201" s="25" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1">
-      <c r="A202" s="21" t="n"/>
-      <c r="B202" s="21" t="n"/>
-      <c r="C202" s="21" t="n"/>
+      <c r="A202" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B202" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C202" s="21" t="inlineStr">
+        <is>
+          <t>Secure transfer to storage accounts should be enabled</t>
+        </is>
+      </c>
       <c r="D202" s="21" t="n"/>
-      <c r="E202" s="21" t="n"/>
+      <c r="E202" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G202" s="21" t="n"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
-      <c r="L202" s="25" t="n"/>
+      <c r="L202" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M202" s="25" t="n"/>
       <c r="N202" s="25" t="n"/>
       <c r="O202" s="25" t="n"/>
       <c r="P202" s="25" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1">
-      <c r="A203" s="21" t="n"/>
-      <c r="B203" s="21" t="n"/>
-      <c r="C203" s="21" t="n"/>
+      <c r="A203" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B203" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C203" s="21" t="inlineStr">
+        <is>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+        </is>
+      </c>
       <c r="D203" s="21" t="n"/>
-      <c r="E203" s="21" t="n"/>
+      <c r="E203" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G203" s="21" t="n"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
-      <c r="L203" s="25" t="n"/>
+      <c r="L203" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M203" s="25" t="n"/>
       <c r="N203" s="25" t="n"/>
       <c r="O203" s="25" t="n"/>
@@ -11889,7 +11949,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.en.xlsx
@@ -1094,17 +1094,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>App Delivery</t>
+          <t>Backup and Disaster Recovery</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1175,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1186,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Backup and Disaster Recovery</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,15 +1213,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1242,7 +1246,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1259,19 +1263,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1292,13 +1296,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,19 +1313,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1342,13 +1346,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
+          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1359,19 +1363,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1392,13 +1396,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
+          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,19 +1413,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1442,7 +1446,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
+          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1459,19 +1463,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1492,13 +1496,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
+          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1509,19 +1513,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1542,13 +1546,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
+          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,19 +1563,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1592,7 +1596,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
+          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1609,19 +1613,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1642,7 +1646,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1659,19 +1663,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1709,19 +1713,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1742,7 +1746,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
+          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1764,14 +1768,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1792,7 +1796,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
+          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1809,19 +1813,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1842,7 +1846,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
+          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1859,19 +1863,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1892,7 +1896,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
+          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1909,19 +1913,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1932,17 +1936,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
+          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1959,19 +1963,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1992,7 +1996,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
+          <t>Enforce or appended resource tags through Azure Policy</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2009,19 +2013,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Enforce or appended resource tags through Azure Policy</t>
+          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2059,19 +2063,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2092,7 +2096,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
+          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2121,7 +2125,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,7 +2146,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
+          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2171,7 +2175,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2192,7 +2196,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
+          <t>Enforce no subscriptions are placed under the root management group</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2209,19 +2213,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2242,7 +2241,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Enforce no subscriptions are placed under the root management group</t>
+          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2259,14 +2258,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
+          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2304,7 +2303,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2312,7 +2311,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2333,13 +2332,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
+          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2358,7 +2357,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2379,13 +2378,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2396,7 +2395,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2404,7 +2403,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2425,13 +2424,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
+          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2442,15 +2441,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2471,7 +2474,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
+          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2488,19 +2491,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2521,13 +2524,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2538,19 +2541,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2571,13 +2574,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2588,19 +2591,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2621,13 +2624,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2638,19 +2641,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2671,7 +2674,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2688,19 +2691,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,23 +2714,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2738,19 +2741,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2771,13 +2770,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2788,7 +2787,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2796,7 +2795,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2812,12 +2811,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2834,15 +2833,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2863,7 +2866,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2878,21 +2881,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2913,7 +2908,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,12 +2923,21 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2954,7 +2958,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2983,7 +2987,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3004,7 +3008,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3021,19 +3025,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3054,7 +3058,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3071,19 +3075,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3104,7 +3108,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3121,19 +3125,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3154,7 +3158,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3171,19 +3175,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3204,13 +3208,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3221,19 +3225,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3254,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3271,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3279,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3317,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3362,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3370,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3408,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3453,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3498,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3543,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3588,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3633,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3678,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3723,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3768,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3776,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3787,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,7 +3814,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3822,7 +3822,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
